--- a/trackers/script-setup-tracker.xlsx
+++ b/trackers/script-setup-tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\advancing-into-analytics-book\trackers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D733931-778A-42A1-901D-0103A5311D30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D37657-BA4D-44D1-A201-658A150CF78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25653" yWindow="-53" windowWidth="25706" windowHeight="14506" xr2:uid="{F012E6EF-2ADE-40D4-B9EF-278D3DC1CD38}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{F012E6EF-2ADE-40D4-B9EF-278D3DC1CD38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.7"/>
@@ -491,15 +491,24 @@
       <c r="A7" t="s">
         <v>7</v>
       </c>
+      <c r="B7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A8" t="s">
         <v>8</v>
       </c>
+      <c r="B8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.7">
       <c r="A9" t="s">
         <v>9</v>
+      </c>
+      <c r="B9" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
